--- a/data/trans_camb/P59A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 11,95</t>
+          <t>-8,14; 11,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 0,19</t>
+          <t>-17,66; 0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 10,72</t>
+          <t>-8,56; 10,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 18,9</t>
+          <t>-4,93; 18,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 9,86</t>
+          <t>-8,88; 10,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 11,76</t>
+          <t>-5,08; 11,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 12,3</t>
+          <t>-3,24; 12,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 2,9</t>
+          <t>-10,59; 2,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 8,5</t>
+          <t>-3,89; 8,43</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 74,43</t>
+          <t>-32,6; 72,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,82; 5,63</t>
+          <t>-62,5; 5,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 71,56</t>
+          <t>-32,05; 62,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 162,32</t>
+          <t>-24,83; 142,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 82,9</t>
+          <t>-40,74; 93,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 106,42</t>
+          <t>-23,27; 92,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 75,47</t>
+          <t>-14,49; 73,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 18,57</t>
+          <t>-45,56; 16,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 52,82</t>
+          <t>-17,08; 56,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 9,5</t>
+          <t>-9,46; 9,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 30,8</t>
+          <t>7,65; 29,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 6,83</t>
+          <t>-10,54; 8,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 10,61</t>
+          <t>-10,73; 9,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 3,38</t>
+          <t>-14,67; 3,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 5,71</t>
+          <t>-11,56; 6,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 6,04</t>
+          <t>-8,6; 5,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 12,72</t>
+          <t>-2,38; 12,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 3,64</t>
+          <t>-9,05; 3,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 86,18</t>
+          <t>-46,89; 82,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 266,15</t>
+          <t>33,9; 269,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 61,07</t>
+          <t>-51,78; 80,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 56,83</t>
+          <t>-41,17; 56,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,86; 18,65</t>
+          <t>-52,66; 20,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 32,14</t>
+          <t>-39,28; 38,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 36,79</t>
+          <t>-37,81; 32,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 76,62</t>
+          <t>-10,38; 75,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 22,35</t>
+          <t>-38,38; 18,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 10,66</t>
+          <t>-8,15; 11,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 6,62</t>
+          <t>-11,95; 8,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 13,2</t>
+          <t>-8,28; 12,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 21,93</t>
+          <t>0,87; 22,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 22,72</t>
+          <t>-1,96; 22,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 14,67</t>
+          <t>-6,14; 13,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 10,9</t>
+          <t>-5,13; 10,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 8,48</t>
+          <t>-7,57; 9,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 9,44</t>
+          <t>-6,06; 10,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 68,39</t>
+          <t>-31,15; 70,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,66; 41,58</t>
+          <t>-45,25; 54,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 81,18</t>
+          <t>-31,74; 79,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 1052,17</t>
+          <t>-16,06; 994,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 964,33</t>
+          <t>-32,1; 1000,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,37; —</t>
+          <t>-55,88; 802,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 82,18</t>
+          <t>-21,76; 74,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 61,32</t>
+          <t>-34,27; 69,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 65,66</t>
+          <t>-27,57; 85,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,4</t>
+          <t>-2,87; 8,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 12,38</t>
+          <t>1,3; 12,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 8,82</t>
+          <t>-2,52; 9,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 16,14</t>
+          <t>4,62; 16,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 13,33</t>
+          <t>2,89; 13,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 11,29</t>
+          <t>0,41; 10,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,69</t>
+          <t>1,76; 10,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,87</t>
+          <t>3,27; 11,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 8,26</t>
+          <t>-0,16; 8,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 54,05</t>
+          <t>-15,78; 61,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,67; 90,88</t>
+          <t>6,5; 88,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 64,32</t>
+          <t>-13,44; 66,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,51; 175,47</t>
+          <t>30,23; 182,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,9; 146,72</t>
+          <t>18,76; 150,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 120,42</t>
+          <t>0,35; 113,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,81; 76,66</t>
+          <t>10,76; 80,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,06; 91,38</t>
+          <t>20,55; 90,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 68,64</t>
+          <t>-2,23; 68,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 7,41</t>
+          <t>-7,29; 7,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 10,49</t>
+          <t>-4,77; 10,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 7,86</t>
+          <t>-8,52; 7,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 6,25</t>
+          <t>-6,33; 6,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 8,29</t>
+          <t>-4,88; 8,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 1,5</t>
+          <t>-11,56; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,41</t>
+          <t>-4,59; 5,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 7,17</t>
+          <t>-2,38; 7,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 2,6</t>
+          <t>-7,68; 2,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 74,7</t>
+          <t>-37,18; 70,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 104,26</t>
+          <t>-26,01; 106,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 81,43</t>
+          <t>-45,37; 77,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 66,44</t>
+          <t>-36,31; 74,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 86,85</t>
+          <t>-28,05; 90,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,67; 11,74</t>
+          <t>-63,07; 26,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 54,84</t>
+          <t>-27,29; 52,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 70,02</t>
+          <t>-14,52; 69,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-46,44; 22,39</t>
+          <t>-46,07; 24,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,0</t>
+          <t>-1,5; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,8</t>
+          <t>0,77; 5,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 7,53</t>
+          <t>-0,16; 7,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,53</t>
+          <t>-1,36; 3,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,12</t>
+          <t>0,09; 5,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,07</t>
+          <t>-0,06; 6,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,16</t>
+          <t>-0,83; 2,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,24</t>
+          <t>0,64; 4,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,14</t>
+          <t>0,28; 5,25</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 175,46</t>
+          <t>-34,97; 186,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 246,8</t>
+          <t>-6,69; 244,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 318,82</t>
+          <t>-6,69; 306,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 158,76</t>
+          <t>-31,02; 156,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>21,98; 325,46</t>
+          <t>14,11; 280,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,08; 353,11</t>
+          <t>6,84; 360,62</t>
         </is>
       </c>
     </row>
@@ -1981,22 +1981,22 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,87</t>
+          <t>-1,04; 4,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,93</t>
+          <t>1,14; 6,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,6</t>
+          <t>-0,56; 5,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,71</t>
+          <t>1,53; 6,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -2006,22 +2006,22 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,37</t>
+          <t>-0,15; 5,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,81</t>
+          <t>1,02; 4,98</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,95</t>
+          <t>1,97; 5,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,6</t>
+          <t>0,84; 4,74</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 40,97</t>
+          <t>-7,62; 38,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>8,11; 58,84</t>
+          <t>7,4; 58,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 45,6</t>
+          <t>-3,53; 47,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,27; 75,34</t>
+          <t>13,27; 73,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>13,88; 71,88</t>
+          <t>13,66; 70,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>3,26; 58,81</t>
+          <t>-1,2; 58,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>7,64; 43,62</t>
+          <t>8,11; 45,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>17,1; 55,27</t>
+          <t>15,19; 53,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>4,65; 41,47</t>
+          <t>6,75; 44,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P59A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
